--- a/biology/Zoologie/Bradypodion/Bradypodion.xlsx
+++ b/biology/Zoologie/Bradypodion/Bradypodion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bradypodion est un genre de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bradypodion est un genre de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des caméléons de taille modérée (par rapport aux autres caméléons), parfois appelés caméléons nains : leur taille varie de quelques centimètres à environ 15 centimètres. Ils vivent généralement dans des milieux plus frais, souvent en altitude, jusqu'à 1 000 m. Ils sont ovipares mais pondent des œufs très développés, qui incubent durant assez peu de temps (environ un mois)[réf. nécessaire].
 </t>
@@ -573,12 +589,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 juin 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 juin 2022) :
 Bradypodion atromontanum Branch, Tolley &amp; Tilbury, 2006
-Bradypodion barbatulum Tolley, Tilbury &amp; Burger, 2022[3]
-Bradypodion baviaanense Tolley, Tilbury &amp; Burger, 2022[3]
+Bradypodion barbatulum Tolley, Tilbury &amp; Burger, 2022
+Bradypodion baviaanense Tolley, Tilbury &amp; Burger, 2022
 Bradypodion caeruleogula Raw &amp; Brothers, 2008
 Bradypodion caffer (Boettger, 1889)
 Bradypodion damaranum (Boulenger, 1887)
@@ -595,7 +613,7 @@
 Bradypodion thamnobates Raw, 1976
 Bradypodion transvaalense (Fitzsimons, 1930)
 Bradypodion ventrale (Gray, 1845)
-Bradypodion venustum Tolley, Tilbury &amp; Burger, 2022[3]</t>
+Bradypodion venustum Tolley, Tilbury &amp; Burger, 2022</t>
         </is>
       </c>
     </row>
@@ -625,7 +643,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Place au sein des Chamaeleonidae
+          <t>Place au sein des Chamaeleonidae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Chamaeleonidae
 Brookesia
 Palleon
@@ -639,8 +663,44 @@
 Calumma
 Kinyongia
 Trioceros
-D’après Krystal A. Tolley, Ted M. Townsend et Miguel Vences[4].
-Arbre phylogénétique du genre Bradypodion
+D’après Krystal A. Tolley, Ted M. Townsend et Miguel Vences.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bradypodion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradypodion</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arbre phylogénétique du genre Bradypodion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bradypodion
 Bradypodion pumilum
 Bradypodion damaranum
@@ -656,38 +716,7 @@
 Bradypodion gutturale
 Bradypodion taeniabronchum
 Bradypodion ventrale
-D’après R Alexander Pyron, Frank T Burbrink et John J Wiens[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bradypodion</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bradypodion</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec Bradus podos qui signifie « pied lent ».
+D’après R Alexander Pyron, Frank T Burbrink et John J Wiens.
 </t>
         </is>
       </c>
@@ -713,10 +742,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec Bradus podos qui signifie « pied lent ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bradypodion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradypodion</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
         </is>
